--- a/Careers/target/test-classes/Exceldata/Data.xlsx
+++ b/Careers/target/test-classes/Exceldata/Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint Implementation\Careers\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7575255F-106D-4AA9-8994-34B0EED301D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F454855-A725-46A2-8D72-ED1246BA0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A44C794-E288-43F0-B7BE-4441423D2C2E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5A44C794-E288-43F0-B7BE-4441423D2C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>John Doe</t>
   </si>
@@ -477,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E22FD7-FA70-490F-B758-A60AF9CF10A2}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,4 +579,98 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7D8822-1831-4187-BA2C-74D4003B59A6}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7671003302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>7671003301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>7671003302</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5BC47C2A-EC30-4891-8EBA-81D6E8FF2445}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{CCD6AF0D-9FE4-4D46-9DB7-9B5CCDCC44BA}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{3B1B8731-4392-4CC9-940A-E4BF2A067900}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Careers/target/test-classes/Exceldata/Data.xlsx
+++ b/Careers/target/test-classes/Exceldata/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint Implementation\Careers\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F454855-A725-46A2-8D72-ED1246BA0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA53BFC-A718-4EE8-8EA0-04C4017B1B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5A44C794-E288-43F0-B7BE-4441423D2C2E}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Careers/target/test-classes/Exceldata/Data.xlsx
+++ b/Careers/target/test-classes/Exceldata/Data.xlsx
@@ -3,20 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint Implementation\Careers\src\test\resources\Exceldata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA53BFC-A718-4EE8-8EA0-04C4017B1B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D3B16049-4D2D-4571-AD82-8CDE89FCE0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5A44C794-E288-43F0-B7BE-4441423D2C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>John Doe</t>
   </si>
@@ -54,9 +51,6 @@
     <t>iris</t>
   </si>
   <si>
-    <t>hsgfy</t>
-  </si>
-  <si>
     <t>google</t>
   </si>
   <si>
@@ -66,18 +60,12 @@
     <t>iris@gmail.com</t>
   </si>
   <si>
-    <t>siris@</t>
-  </si>
-  <si>
     <t>need more courses</t>
   </si>
   <si>
     <t>need Ai/ML course</t>
   </si>
   <si>
-    <t>nothing needed</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -94,6 +82,9 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>johnDoe@</t>
   </si>
 </sst>
 </file>
@@ -476,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E22FD7-FA70-490F-B758-A60AF9CF10A2}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,22 +484,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -522,13 +513,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>7671003302</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -536,46 +527,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>7671003301</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E4">
-        <v>7671003302</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E564EF1E-614A-440C-BCC1-F1A99833A571}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{286359BF-86BB-42C8-8592-97B80A46DDA3}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{DC7FC9A6-B3EA-44D8-92EC-E62B0F2DEEF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -583,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7D8822-1831-4187-BA2C-74D4003B59A6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,19 +569,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -625,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>7671003302</v>
@@ -636,40 +606,87 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>7671003301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>7671003302</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{5BC47C2A-EC30-4891-8EBA-81D6E8FF2445}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{CCD6AF0D-9FE4-4D46-9DB7-9B5CCDCC44BA}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{3B1B8731-4392-4CC9-940A-E4BF2A067900}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E8C57F-A155-48A0-8287-836DED09FF68}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>7671003302</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{AC48895D-3A83-4C52-87A8-FCEE09A39BE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
